--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="H2">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="I2">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="J2">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.687165</v>
+        <v>2.078464666666667</v>
       </c>
       <c r="N2">
-        <v>11.061495</v>
+        <v>6.235394</v>
       </c>
       <c r="O2">
-        <v>0.02835531825299169</v>
+        <v>0.02232072443689449</v>
       </c>
       <c r="P2">
-        <v>0.03214637466498472</v>
+        <v>0.02315962369441786</v>
       </c>
       <c r="Q2">
-        <v>0.53065187058</v>
+        <v>1.206433037800222</v>
       </c>
       <c r="R2">
-        <v>4.77586683522</v>
+        <v>10.857897340202</v>
       </c>
       <c r="S2">
-        <v>1.708075503915505E-05</v>
+        <v>5.426777489045545E-05</v>
       </c>
       <c r="T2">
-        <v>1.938094681084361E-05</v>
+        <v>5.640357534661292E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="H3">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="I3">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="J3">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>235.337868</v>
       </c>
       <c r="O3">
-        <v>0.6032710898590606</v>
+        <v>0.8424346081729959</v>
       </c>
       <c r="P3">
-        <v>0.6839273784951058</v>
+        <v>0.8740965629319627</v>
       </c>
       <c r="Q3">
-        <v>11.289837392912</v>
+        <v>45.53351063311601</v>
       </c>
       <c r="R3">
-        <v>101.608536536208</v>
+        <v>409.801595698044</v>
       </c>
       <c r="S3">
-        <v>0.00036340010773815</v>
+        <v>0.002048188525668742</v>
       </c>
       <c r="T3">
-        <v>0.0004123376363037127</v>
+        <v>0.002128798464002314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="H4">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="I4">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="J4">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.681161666666666</v>
+        <v>2.412811</v>
       </c>
       <c r="N4">
-        <v>5.043485</v>
+        <v>7.238433000000001</v>
       </c>
       <c r="O4">
-        <v>0.01292859801312479</v>
+        <v>0.0259112845712594</v>
       </c>
       <c r="P4">
-        <v>0.01465712893485288</v>
+        <v>0.02688513098246176</v>
       </c>
       <c r="Q4">
-        <v>0.2419505455177778</v>
+        <v>1.400502472354333</v>
       </c>
       <c r="R4">
-        <v>2.17755490966</v>
+        <v>12.604522251189</v>
       </c>
       <c r="S4">
-        <v>7.78796463124134E-06</v>
+        <v>6.29974068364636E-05</v>
       </c>
       <c r="T4">
-        <v>8.836736311528199E-06</v>
+        <v>6.547677678538186E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="H5">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="I5">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="J5">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>46.005266</v>
+        <v>10.1189145</v>
       </c>
       <c r="N5">
-        <v>92.010532</v>
+        <v>20.237829</v>
       </c>
       <c r="O5">
-        <v>0.3537932147716574</v>
+        <v>0.1086674725710978</v>
       </c>
       <c r="P5">
-        <v>0.2673964988273796</v>
+        <v>0.0751677446576715</v>
       </c>
       <c r="Q5">
-        <v>6.621016542365333</v>
+        <v>5.873466581009501</v>
       </c>
       <c r="R5">
-        <v>39.72609925419199</v>
+        <v>35.240799486057</v>
       </c>
       <c r="S5">
-        <v>0.0002131189352950488</v>
+        <v>0.0002642002931435122</v>
       </c>
       <c r="T5">
-        <v>0.0001612124967492572</v>
+        <v>0.0001830655629545411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="H6">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="I6">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="J6">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.214788</v>
+        <v>0.06200833333333333</v>
       </c>
       <c r="N6">
-        <v>0.644364</v>
+        <v>0.186025</v>
       </c>
       <c r="O6">
-        <v>0.001651779103165597</v>
+        <v>0.0006659102477523147</v>
       </c>
       <c r="P6">
-        <v>0.001872619077676952</v>
+        <v>0.0006909377334863013</v>
       </c>
       <c r="Q6">
-        <v>0.030912002576</v>
+        <v>0.03599238570277778</v>
       </c>
       <c r="R6">
-        <v>0.278208023184</v>
+        <v>0.323931471325</v>
       </c>
       <c r="S6">
-        <v>9.950032649339089E-07</v>
+        <v>1.619009612543646E-06</v>
       </c>
       <c r="T6">
-        <v>1.128996072485902E-06</v>
+        <v>1.682728485778712E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.340352</v>
       </c>
       <c r="I7">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="J7">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.687165</v>
+        <v>2.078464666666667</v>
       </c>
       <c r="N7">
-        <v>11.061495</v>
+        <v>6.235394</v>
       </c>
       <c r="O7">
-        <v>0.02835531825299169</v>
+        <v>0.02232072443689449</v>
       </c>
       <c r="P7">
-        <v>0.03214637466498472</v>
+        <v>0.02315962369441786</v>
       </c>
       <c r="Q7">
-        <v>0.4183113273599999</v>
+        <v>0.2358032020764444</v>
       </c>
       <c r="R7">
-        <v>3.76480194624</v>
+        <v>2.122228818688</v>
       </c>
       <c r="S7">
-        <v>1.34647095560606E-05</v>
+        <v>1.060690041451939E-05</v>
       </c>
       <c r="T7">
-        <v>1.527794404470174E-05</v>
+        <v>1.10243529964518E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.340352</v>
       </c>
       <c r="I8">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="J8">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>235.337868</v>
       </c>
       <c r="O8">
-        <v>0.6032710898590606</v>
+        <v>0.8424346081729959</v>
       </c>
       <c r="P8">
-        <v>0.6839273784951058</v>
+        <v>0.8740965629319627</v>
       </c>
       <c r="Q8">
         <v>8.899746005504001</v>
@@ -948,10 +948,10 @@
         <v>80.09771404953601</v>
       </c>
       <c r="S8">
-        <v>0.0002864672487907402</v>
+        <v>0.0004003284042101125</v>
       </c>
       <c r="T8">
-        <v>0.0003250445603332466</v>
+        <v>0.0004160840085268674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>0.340352</v>
       </c>
       <c r="I9">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="J9">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.681161666666666</v>
+        <v>2.412811</v>
       </c>
       <c r="N9">
-        <v>5.043485</v>
+        <v>7.238433000000001</v>
       </c>
       <c r="O9">
-        <v>0.01292859801312479</v>
+        <v>0.0259112845712594</v>
       </c>
       <c r="P9">
-        <v>0.01465712893485288</v>
+        <v>0.02688513098246176</v>
       </c>
       <c r="Q9">
-        <v>0.1907289118577777</v>
+        <v>0.2737350164906667</v>
       </c>
       <c r="R9">
-        <v>1.71656020672</v>
+        <v>2.463615148416</v>
       </c>
       <c r="S9">
-        <v>6.139229884870743E-06</v>
+        <v>1.2313149415766E-05</v>
       </c>
       <c r="T9">
-        <v>6.965973552426012E-06</v>
+        <v>1.279775432525444E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.340352</v>
       </c>
       <c r="I10">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="J10">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.005266</v>
+        <v>10.1189145</v>
       </c>
       <c r="N10">
-        <v>92.010532</v>
+        <v>20.237829</v>
       </c>
       <c r="O10">
-        <v>0.3537932147716574</v>
+        <v>0.1086674725710978</v>
       </c>
       <c r="P10">
-        <v>0.2673964988273796</v>
+        <v>0.0751677446576715</v>
       </c>
       <c r="Q10">
-        <v>5.219328097877333</v>
+        <v>1.147997595968</v>
       </c>
       <c r="R10">
-        <v>31.315968587264</v>
+        <v>6.887985575808</v>
       </c>
       <c r="S10">
-        <v>0.0001680010373116771</v>
+        <v>5.163923165298117E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001270833426602136</v>
+        <v>3.578105421691542E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>0.340352</v>
       </c>
       <c r="I11">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="J11">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.214788</v>
+        <v>0.06200833333333333</v>
       </c>
       <c r="N11">
-        <v>0.644364</v>
+        <v>0.186025</v>
       </c>
       <c r="O11">
-        <v>0.001651779103165597</v>
+        <v>0.0006659102477523147</v>
       </c>
       <c r="P11">
-        <v>0.001872619077676952</v>
+        <v>0.0006909377334863013</v>
       </c>
       <c r="Q11">
-        <v>0.024367841792</v>
+        <v>0.007034886755555554</v>
       </c>
       <c r="R11">
-        <v>0.219310576128</v>
+        <v>0.0633139808</v>
       </c>
       <c r="S11">
-        <v>7.843581819981326E-07</v>
+        <v>3.164432992704181E-07</v>
       </c>
       <c r="T11">
-        <v>8.899843227719396E-07</v>
+        <v>3.288974628010588E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="H12">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="I12">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="J12">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.687165</v>
+        <v>2.078464666666667</v>
       </c>
       <c r="N12">
-        <v>11.061495</v>
+        <v>6.235394</v>
       </c>
       <c r="O12">
-        <v>0.02835531825299169</v>
+        <v>0.02232072443689449</v>
       </c>
       <c r="P12">
-        <v>0.03214637466498472</v>
+        <v>0.02315962369441786</v>
       </c>
       <c r="Q12">
-        <v>366.19222505313</v>
+        <v>282.8791173437045</v>
       </c>
       <c r="R12">
-        <v>3295.73002547817</v>
+        <v>2545.91205609334</v>
       </c>
       <c r="S12">
-        <v>0.01178708686457497</v>
+        <v>0.01272446939053484</v>
       </c>
       <c r="T12">
-        <v>0.01337440312523921</v>
+        <v>0.01322526249626886</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="H13">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="I13">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="J13">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>235.337868</v>
       </c>
       <c r="O13">
-        <v>0.6032710898590606</v>
+        <v>0.8424346081729959</v>
       </c>
       <c r="P13">
-        <v>0.6839273784951058</v>
+        <v>0.8740965629319627</v>
       </c>
       <c r="Q13">
-        <v>7790.890609468232</v>
+        <v>10676.49748795172</v>
       </c>
       <c r="R13">
-        <v>70118.0154852141</v>
+        <v>96088.4773915655</v>
       </c>
       <c r="S13">
-        <v>0.2507751341604256</v>
+        <v>0.480250245261122</v>
       </c>
       <c r="T13">
-        <v>0.2845459422317087</v>
+        <v>0.4991513093819366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="H14">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="I14">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="J14">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.681161666666666</v>
+        <v>2.412811</v>
       </c>
       <c r="N14">
-        <v>5.043485</v>
+        <v>7.238433000000001</v>
       </c>
       <c r="O14">
-        <v>0.01292859801312479</v>
+        <v>0.0259112845712594</v>
       </c>
       <c r="P14">
-        <v>0.01465712893485288</v>
+        <v>0.02688513098246176</v>
       </c>
       <c r="Q14">
-        <v>166.9652243365011</v>
+        <v>328.3836655697367</v>
       </c>
       <c r="R14">
-        <v>1502.68701902851</v>
+        <v>2955.452990127631</v>
       </c>
       <c r="S14">
-        <v>0.005374318371538464</v>
+        <v>0.01477135512911249</v>
       </c>
       <c r="T14">
-        <v>0.006098054697497681</v>
+        <v>0.0153527068997813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="H15">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="I15">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="J15">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.005266</v>
+        <v>10.1189145</v>
       </c>
       <c r="N15">
-        <v>92.010532</v>
+        <v>20.237829</v>
       </c>
       <c r="O15">
-        <v>0.3537932147716574</v>
+        <v>0.1086674725710978</v>
       </c>
       <c r="P15">
-        <v>0.2673964988273796</v>
+        <v>0.0751677446576715</v>
       </c>
       <c r="Q15">
-        <v>4569.030873503385</v>
+        <v>1377.184634476865</v>
       </c>
       <c r="R15">
-        <v>27414.18524102031</v>
+        <v>8263.107806861191</v>
       </c>
       <c r="S15">
-        <v>0.1470691077209393</v>
+        <v>0.06194852377605448</v>
       </c>
       <c r="T15">
-        <v>0.1112495143500696</v>
+        <v>0.04292440876704862</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="H16">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="I16">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="J16">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.214788</v>
+        <v>0.06200833333333333</v>
       </c>
       <c r="N16">
-        <v>0.644364</v>
+        <v>0.186025</v>
       </c>
       <c r="O16">
-        <v>0.001651779103165597</v>
+        <v>0.0006659102477523147</v>
       </c>
       <c r="P16">
-        <v>0.001872619077676952</v>
+        <v>0.0006909377334863013</v>
       </c>
       <c r="Q16">
-        <v>21.331753700936</v>
+        <v>8.439336440305556</v>
       </c>
       <c r="R16">
-        <v>191.985783308424</v>
+        <v>75.95402796275</v>
       </c>
       <c r="S16">
-        <v>0.0006866318196957087</v>
+        <v>0.0003796182596278989</v>
       </c>
       <c r="T16">
-        <v>0.0007790975718374092</v>
+        <v>0.0003945587810278572</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="H17">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="I17">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="J17">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.687165</v>
+        <v>2.078464666666667</v>
       </c>
       <c r="N17">
-        <v>11.061495</v>
+        <v>6.235394</v>
       </c>
       <c r="O17">
-        <v>0.02835531825299169</v>
+        <v>0.02232072443689449</v>
       </c>
       <c r="P17">
-        <v>0.03214637466498472</v>
+        <v>0.02315962369441786</v>
       </c>
       <c r="Q17">
-        <v>2.25329290047</v>
+        <v>2.539172987750666</v>
       </c>
       <c r="R17">
-        <v>13.51975740282</v>
+        <v>15.235037926504</v>
       </c>
       <c r="S17">
-        <v>7.252955505900342E-05</v>
+        <v>0.0001142170877203683</v>
       </c>
       <c r="T17">
-        <v>5.486453206509755E-05</v>
+        <v>7.914153013902848E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="H18">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="I18">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="J18">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>235.337868</v>
       </c>
       <c r="O18">
-        <v>0.6032710898590606</v>
+        <v>0.8424346081729959</v>
       </c>
       <c r="P18">
-        <v>0.6839273784951058</v>
+        <v>0.8740965629319627</v>
       </c>
       <c r="Q18">
-        <v>47.93973573880801</v>
+        <v>95.83412971504801</v>
       </c>
       <c r="R18">
-        <v>287.638414432848</v>
+        <v>575.004778290288</v>
       </c>
       <c r="S18">
-        <v>0.001543096195819325</v>
+        <v>0.00431081113932503</v>
       </c>
       <c r="T18">
-        <v>0.001167265546385701</v>
+        <v>0.002986980289164839</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="H19">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="I19">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="J19">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1.681161666666666</v>
+        <v>2.412811</v>
       </c>
       <c r="N19">
-        <v>5.043485</v>
+        <v>7.238433000000001</v>
       </c>
       <c r="O19">
-        <v>0.01292859801312479</v>
+        <v>0.0259112845712594</v>
       </c>
       <c r="P19">
-        <v>0.01465712893485288</v>
+        <v>0.02688513098246176</v>
       </c>
       <c r="Q19">
-        <v>1.02738815541</v>
+        <v>2.947629860638</v>
       </c>
       <c r="R19">
-        <v>6.16432893246</v>
+        <v>17.685779163828</v>
       </c>
       <c r="S19">
-        <v>3.306982672746838E-05</v>
+        <v>0.0001325902961254748</v>
       </c>
       <c r="T19">
-        <v>2.501546531480044E-05</v>
+        <v>9.187240829189596E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="H20">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="I20">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="J20">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.005266</v>
+        <v>10.1189145</v>
       </c>
       <c r="N20">
-        <v>92.010532</v>
+        <v>20.237829</v>
       </c>
       <c r="O20">
-        <v>0.3537932147716574</v>
+        <v>0.1086674725710978</v>
       </c>
       <c r="P20">
-        <v>0.2673964988273796</v>
+        <v>0.0751677446576715</v>
       </c>
       <c r="Q20">
-        <v>28.114646147388</v>
+        <v>12.361852850241</v>
       </c>
       <c r="R20">
-        <v>112.458584589552</v>
+        <v>49.447411400964</v>
       </c>
       <c r="S20">
-        <v>0.0009049612570500908</v>
+        <v>0.0005560609057333379</v>
       </c>
       <c r="T20">
-        <v>0.0004563682199594796</v>
+        <v>0.0002568647231838124</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="H21">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="I21">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="J21">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.214788</v>
+        <v>0.06200833333333333</v>
       </c>
       <c r="N21">
-        <v>0.644364</v>
+        <v>0.186025</v>
       </c>
       <c r="O21">
-        <v>0.001651779103165597</v>
+        <v>0.0006659102477523147</v>
       </c>
       <c r="P21">
-        <v>0.001872619077676952</v>
+        <v>0.0006909377334863013</v>
       </c>
       <c r="Q21">
-        <v>0.131260812984</v>
+        <v>0.07575297648333333</v>
       </c>
       <c r="R21">
-        <v>0.7875648779040001</v>
+        <v>0.4545178589</v>
       </c>
       <c r="S21">
-        <v>4.22505585511178E-06</v>
+        <v>3.407520638340017E-06</v>
       </c>
       <c r="T21">
-        <v>3.196017295997921E-06</v>
+        <v>2.361086267221088E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="H22">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="I22">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="J22">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.687165</v>
+        <v>2.078464666666667</v>
       </c>
       <c r="N22">
-        <v>11.061495</v>
+        <v>6.235394</v>
       </c>
       <c r="O22">
-        <v>0.02835531825299169</v>
+        <v>0.02232072443689449</v>
       </c>
       <c r="P22">
-        <v>0.03214637466498472</v>
+        <v>0.02315962369441786</v>
       </c>
       <c r="Q22">
-        <v>511.5269205867749</v>
+        <v>209.3540214299796</v>
       </c>
       <c r="R22">
-        <v>4603.742285280974</v>
+        <v>1884.186192869816</v>
       </c>
       <c r="S22">
-        <v>0.01646515636876251</v>
+        <v>0.009417163283334303</v>
       </c>
       <c r="T22">
-        <v>0.01868244811682486</v>
+        <v>0.009787791739666906</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="H23">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="I23">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="J23">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>235.337868</v>
       </c>
       <c r="O23">
-        <v>0.6032710898590606</v>
+        <v>0.8424346081729959</v>
       </c>
       <c r="P23">
-        <v>0.6839273784951058</v>
+        <v>0.8740965629319627</v>
       </c>
       <c r="Q23">
-        <v>10882.94619447886</v>
+        <v>7901.49412540053</v>
       </c>
       <c r="R23">
-        <v>97946.51575030974</v>
+        <v>71113.44712860476</v>
       </c>
       <c r="S23">
-        <v>0.3503029921462868</v>
+        <v>0.35542503484267</v>
       </c>
       <c r="T23">
-        <v>0.3974767885203744</v>
+        <v>0.369413390788332</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="H24">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="I24">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="J24">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1.681161666666666</v>
+        <v>2.412811</v>
       </c>
       <c r="N24">
-        <v>5.043485</v>
+        <v>7.238433000000001</v>
       </c>
       <c r="O24">
-        <v>0.01292859801312479</v>
+        <v>0.0259112845712594</v>
       </c>
       <c r="P24">
-        <v>0.01465712893485288</v>
+        <v>0.02688513098246176</v>
       </c>
       <c r="Q24">
-        <v>233.2305308708805</v>
+        <v>243.0311632916014</v>
       </c>
       <c r="R24">
-        <v>2099.074777837925</v>
+        <v>2187.280469624412</v>
       </c>
       <c r="S24">
-        <v>0.007507282620342745</v>
+        <v>0.01093202858976921</v>
       </c>
       <c r="T24">
-        <v>0.008518256062176445</v>
+        <v>0.01136227714327793</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="H25">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="I25">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="J25">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>46.005266</v>
+        <v>10.1189145</v>
       </c>
       <c r="N25">
-        <v>92.010532</v>
+        <v>20.237829</v>
       </c>
       <c r="O25">
-        <v>0.3537932147716574</v>
+        <v>0.1086674725710978</v>
       </c>
       <c r="P25">
-        <v>0.2673964988273796</v>
+        <v>0.0751677446576715</v>
       </c>
       <c r="Q25">
-        <v>6382.391904825376</v>
+        <v>1019.230914557026</v>
       </c>
       <c r="R25">
-        <v>38294.35142895226</v>
+        <v>6115.385487342157</v>
       </c>
       <c r="S25">
-        <v>0.2054380258210612</v>
+        <v>0.0458470483645135</v>
       </c>
       <c r="T25">
-        <v>0.1554023204179411</v>
+        <v>0.03176762455026761</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="H26">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="I26">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="J26">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.214788</v>
+        <v>0.06200833333333333</v>
       </c>
       <c r="N26">
-        <v>0.644364</v>
+        <v>0.186025</v>
       </c>
       <c r="O26">
-        <v>0.001651779103165597</v>
+        <v>0.0006659102477523147</v>
       </c>
       <c r="P26">
-        <v>0.001872619077676952</v>
+        <v>0.0006909377334863013</v>
       </c>
       <c r="Q26">
-        <v>29.79791905678</v>
+        <v>6.245809300344445</v>
       </c>
       <c r="R26">
-        <v>268.18127151102</v>
+        <v>56.21228370310001</v>
       </c>
       <c r="S26">
-        <v>0.0009591428661678449</v>
+        <v>0.0002809490145742617</v>
       </c>
       <c r="T26">
-        <v>0.001088306508148287</v>
+        <v>0.0002920062402426433</v>
       </c>
     </row>
   </sheetData>
